--- a/ws-subprg/ws_subprgList_protocolCore.xlsx
+++ b/ws-subprg/ws_subprgList_protocolCore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\ws-subprg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E68230C-4565-4062-90DB-FBE10A88F46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6C824C-808A-4C5E-8EB3-C118C141028B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sottoprgramma" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="61">
   <si>
     <t>File</t>
   </si>
@@ -199,6 +199,18 @@
   </si>
   <si>
     <t>Intero</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>YCHECK_USER</t>
+  </si>
+  <si>
+    <t>Invalid. AT e RT token JWT AX3</t>
+  </si>
+  <si>
+    <t>Controllo esistenza utente AX3</t>
   </si>
 </sst>
 </file>
@@ -365,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -388,7 +400,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -406,9 +418,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -430,26 +439,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -745,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -819,19 +819,19 @@
       <c r="B3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="8" t="s">
@@ -845,19 +845,19 @@
       <c r="B4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -871,19 +871,19 @@
       <c r="B5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="8" t="s">
@@ -897,19 +897,19 @@
       <c r="B6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="8" t="s">
@@ -923,19 +923,19 @@
       <c r="B7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="8" t="s">
@@ -1001,7 +1001,7 @@
       <c r="E3" s="11">
         <v>1</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1009,57 +1009,57 @@
       <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="14">
-        <v>1</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="17">
-        <v>1</v>
-      </c>
-      <c r="F5" s="21" t="s">
+      <c r="C5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="25">
+      <c r="C7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="11">
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
@@ -1067,22 +1067,22 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="28">
-        <v>1</v>
-      </c>
-      <c r="F8" s="18" t="s">
+      <c r="C8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1090,19 +1090,19 @@
       <c r="A9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="24" t="s">
+      <c r="C10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="11">
         <v>1</v>
       </c>
       <c r="F10" s="12" t="s">
@@ -1110,42 +1110,42 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="25" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="22">
-        <v>1</v>
-      </c>
-      <c r="F11" s="15" t="s">
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="28">
-        <v>1</v>
-      </c>
-      <c r="F12" s="18" t="s">
+      <c r="C12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1153,19 +1153,19 @@
       <c r="A13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="24" t="s">
+      <c r="C14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="11">
         <v>1</v>
       </c>
       <c r="F14" s="12" t="s">
@@ -1173,142 +1173,142 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="22">
-        <v>1</v>
-      </c>
-      <c r="F15" s="15" t="s">
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="22">
-        <v>1</v>
-      </c>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="22">
-        <v>1</v>
-      </c>
-      <c r="F17" s="15" t="s">
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="22">
-        <v>1</v>
-      </c>
-      <c r="F18" s="15" t="s">
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="22">
-        <v>1</v>
-      </c>
-      <c r="F19" s="15" t="s">
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="22">
-        <v>1</v>
-      </c>
-      <c r="F20" s="15" t="s">
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="28">
-        <v>1</v>
-      </c>
-      <c r="F21" s="18" t="s">
+      <c r="C21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="16">
+        <v>1</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1317,19 +1317,19 @@
       <c r="B22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="25">
+      <c r="C23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="11">
         <v>1</v>
       </c>
       <c r="F23" s="12" t="s">
@@ -1337,22 +1337,22 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="28">
-        <v>1</v>
-      </c>
-      <c r="F24" s="18" t="s">
+      <c r="C24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="16">
+        <v>1</v>
+      </c>
+      <c r="F24" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1360,19 +1360,19 @@
       <c r="A25" s="8"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="25">
+      <c r="C26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="11">
         <v>1</v>
       </c>
       <c r="F26" s="12" t="s">
@@ -1380,22 +1380,22 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="28">
-        <v>1</v>
-      </c>
-      <c r="F27" s="18" t="s">
+      <c r="C27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="16">
+        <v>1</v>
+      </c>
+      <c r="F27" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1406,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307633E0-95BB-4101-8F21-8B6A9E0EBAC5}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,87 +1417,133 @@
     <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1510,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BC2AFE-8505-46FC-A172-307AD377E7A4}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -1523,22 +1569,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="28" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1567,57 +1613,57 @@
       <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="17" t="s">
+      <c r="C5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="24" t="s">
+      <c r="C7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>48</v>
       </c>
       <c r="F7" s="12" t="s">
@@ -1625,40 +1671,40 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="27" t="s">
+      <c r="C8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="24" t="s">
+      <c r="C10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="22" t="s">
         <v>48</v>
       </c>
       <c r="F10" s="12" t="s">
@@ -1666,13 +1712,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -1681,18 +1727,18 @@
       <c r="E11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -1701,18 +1747,18 @@
       <c r="E12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -1721,18 +1767,18 @@
       <c r="E13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -1741,18 +1787,18 @@
       <c r="E14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -1761,18 +1807,18 @@
       <c r="E15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -1781,45 +1827,45 @@
       <c r="E16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="27" t="s">
+      <c r="C17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="24" t="s">
+      <c r="C19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="12" t="s">
@@ -1827,22 +1873,22 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="27" t="s">
+      <c r="C20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1850,19 +1896,19 @@
       <c r="A21" s="8"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="24" t="s">
+      <c r="C22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="22" t="s">
         <v>48</v>
       </c>
       <c r="F22" s="12" t="s">
@@ -1870,22 +1916,22 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="27" t="s">
+      <c r="C23" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="17" t="s">
         <v>28</v>
       </c>
     </row>

--- a/ws-subprg/ws_subprgList_protocolCore.xlsx
+++ b/ws-subprg/ws_subprgList_protocolCore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\ws-subprg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6C824C-808A-4C5E-8EB3-C118C141028B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBD7691-02F2-4BAF-A117-06E9D9703607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="624" yWindow="624" windowWidth="21600" windowHeight="11292" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sottoprgramma" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>SEL_OBJ</t>
   </si>
   <si>
-    <t>YAX3M</t>
-  </si>
-  <si>
     <t>Selezione oggetti AX3 Mobile</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>Controllo esistenza utente AX3</t>
+  </si>
+  <si>
+    <t>YAX3C</t>
   </si>
 </sst>
 </file>
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +783,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -794,19 +794,19 @@
         <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>8</v>
@@ -814,132 +814,132 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="D3" s="9" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H3" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H5" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="D6" s="9" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H6" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -951,7 +951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612F6477-338E-40CE-860A-6866966E781E}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:F27"/>
     </sheetView>
   </sheetViews>
@@ -966,10 +966,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -978,10 +978,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -990,19 +990,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" s="11">
         <v>1</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1010,19 +1010,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" s="9">
         <v>1</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1030,60 +1030,60 @@
         <v>8</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="16">
         <v>1</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="16">
         <v>1</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1091,62 +1091,62 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>22</v>
-      </c>
       <c r="E10" s="11">
         <v>1</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="9">
         <v>1</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="16">
         <v>1</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1154,162 +1154,162 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>22</v>
-      </c>
       <c r="E14" s="11">
         <v>1</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="9">
         <v>1</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="E16" s="9">
         <v>1</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="9">
         <v>1</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="9">
         <v>1</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="E19" s="9">
         <v>1</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="E20" s="9">
         <v>1</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="16">
         <v>1</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1318,42 +1318,42 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23" s="11">
         <v>1</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" s="16">
         <v>1</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1361,42 +1361,42 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" s="11">
         <v>1</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27" s="16">
         <v>1</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1423,13 +1423,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
@@ -1456,95 +1456,95 @@
         <v>8</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="E4" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="E6" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1556,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BC2AFE-8505-46FC-A172-307AD377E7A4}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -1570,10 +1570,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>2</v>
@@ -1582,10 +1582,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1594,19 +1594,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1614,19 +1614,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1634,262 +1634,262 @@
         <v>8</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>22</v>
-      </c>
       <c r="E10" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="E12" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="E15" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="E16" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1897,42 +1897,42 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/ws-subprg/ws_subprgList_protocolCore.xlsx
+++ b/ws-subprg/ws_subprgList_protocolCore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\ws-subprg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBD7691-02F2-4BAF-A117-06E9D9703607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D72396-DF59-4C51-A2CD-ECBD9CE0C8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="624" yWindow="624" windowWidth="21600" windowHeight="11292" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sottoprgramma" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="62">
   <si>
     <t>File</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>YAX3C</t>
+  </si>
+  <si>
+    <t>MANCA</t>
   </si>
 </sst>
 </file>
@@ -743,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +763,7 @@
     <col min="8" max="8" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -786,7 +789,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -812,7 +815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>30</v>
       </c>
@@ -838,7 +841,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>30</v>
       </c>
@@ -864,7 +867,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
@@ -889,8 +892,9 @@
       <c r="H5" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
@@ -916,7 +920,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>30</v>
       </c>
@@ -949,10 +953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612F6477-338E-40CE-860A-6866966E781E}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,7 +968,7 @@
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -984,8 +988,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
@@ -1005,7 +1009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
@@ -1025,7 +1029,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
@@ -1045,8 +1049,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>31</v>
       </c>
@@ -1066,7 +1070,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>31</v>
       </c>
@@ -1086,10 +1090,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>35</v>
       </c>
@@ -1109,7 +1113,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>35</v>
       </c>
@@ -1129,7 +1133,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>35</v>
       </c>
@@ -1149,10 +1153,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>38</v>
       </c>
@@ -1171,8 +1175,11 @@
       <c r="F14" s="12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>38</v>
       </c>
@@ -1191,8 +1198,11 @@
       <c r="F15" s="14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>38</v>
       </c>
@@ -1211,8 +1221,11 @@
       <c r="F16" s="14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>38</v>
       </c>
@@ -1231,8 +1244,11 @@
       <c r="F17" s="14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>38</v>
       </c>
@@ -1251,8 +1267,11 @@
       <c r="F18" s="14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>38</v>
       </c>
@@ -1271,8 +1290,11 @@
       <c r="F19" s="14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>38</v>
       </c>
@@ -1291,8 +1313,11 @@
       <c r="F20" s="14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>38</v>
       </c>
@@ -1311,12 +1336,15 @@
       <c r="F21" s="17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>40</v>
       </c>
@@ -1336,7 +1364,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>40</v>
       </c>
@@ -1356,12 +1384,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B26" s="22" t="s">
         <v>49</v>
@@ -1379,7 +1407,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
         <v>42</v>
       </c>
@@ -1556,7 +1584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BC2AFE-8505-46FC-A172-307AD377E7A4}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>

--- a/ws-subprg/ws_subprgList_protocolCore.xlsx
+++ b/ws-subprg/ws_subprgList_protocolCore.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\ws-subprg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D72396-DF59-4C51-A2CD-ECBD9CE0C8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D89DE8-2341-45CF-A889-1E499DE136DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sottoprgramma" sheetId="1" r:id="rId1"/>
+    <sheet name="Sottoprogramma" sheetId="1" r:id="rId1"/>
     <sheet name="Parametri Sottoprogramma" sheetId="3" r:id="rId2"/>
     <sheet name="Web Service" sheetId="2" r:id="rId3"/>
     <sheet name="Parametri WS" sheetId="4" r:id="rId4"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="91">
   <si>
     <t>File</t>
   </si>
@@ -213,7 +213,94 @@
     <t>YAX3C</t>
   </si>
   <si>
-    <t>MANCA</t>
+    <t>YAX3MPROTOCOLLIB</t>
+  </si>
+  <si>
+    <t>YACTFLDPAR</t>
+  </si>
+  <si>
+    <t>YAX3M - Read azioni campo e parametri azione</t>
+  </si>
+  <si>
+    <t>YPROTOCOL</t>
+  </si>
+  <si>
+    <t>YAX3M - Main protocol</t>
+  </si>
+  <si>
+    <t>YSCRFLD</t>
+  </si>
+  <si>
+    <t>YAX3M - Read campi videata</t>
+  </si>
+  <si>
+    <t>YSCRFLDTYP</t>
+  </si>
+  <si>
+    <t>AX3M - Lettura tipi campi videata</t>
+  </si>
+  <si>
+    <t>YWINBTS</t>
+  </si>
+  <si>
+    <t>Lettura bottoni finestra AX3M</t>
+  </si>
+  <si>
+    <t>SCREENCODE</t>
+  </si>
+  <si>
+    <t>FIELDCODE</t>
+  </si>
+  <si>
+    <t>FUNCTION</t>
+  </si>
+  <si>
+    <t>FIELDTYPE</t>
+  </si>
+  <si>
+    <t>Per  valore</t>
+  </si>
+  <si>
+    <t>WINCODE</t>
+  </si>
+  <si>
+    <t>PATCH</t>
+  </si>
+  <si>
+    <t>manca</t>
+  </si>
+  <si>
+    <t>Patch</t>
+  </si>
+  <si>
+    <t>YUPSERT_USR</t>
+  </si>
+  <si>
+    <t>AX3M - Inserimento/Aggiornamento utente da swagger</t>
+  </si>
+  <si>
+    <t>YUPS_USR</t>
+  </si>
+  <si>
+    <t>YX3USERNAME</t>
+  </si>
+  <si>
+    <t>YNOMUSR</t>
+  </si>
+  <si>
+    <t>YEMAIL</t>
+  </si>
+  <si>
+    <t>YENAFLG</t>
+  </si>
+  <si>
+    <t>YHASH</t>
+  </si>
+  <si>
+    <t>YSALT</t>
+  </si>
+  <si>
+    <t>AX3M - Ins/Upd user</t>
   </si>
 </sst>
 </file>
@@ -243,12 +330,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -294,17 +387,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -376,11 +458,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -413,59 +510,96 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -746,17 +880,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" customWidth="1"/>
+    <col min="3" max="3" width="55.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
@@ -788,162 +922,342 @@
       <c r="H1" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="I1" s="38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D3" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H3" s="30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H5" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C6" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D6" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H6" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C7" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D7" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G7" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="8" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C8" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D8" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E8" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H8" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="8" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C9" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D9" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E9" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H9" s="13" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -953,10 +1267,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612F6477-338E-40CE-860A-6866966E781E}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,30 +1304,28 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="A4" s="12"/>
       <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
@@ -1025,98 +1338,92 @@
       <c r="E4" s="9">
         <v>1</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="16">
-        <v>1</v>
-      </c>
-      <c r="F5" s="20" t="s">
+      <c r="C5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="11">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="C7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="16">
-        <v>1</v>
-      </c>
-      <c r="F8" s="17" t="s">
+      <c r="C8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="11">
-        <v>1</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="C10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>35</v>
-      </c>
+      <c r="A11" s="23"/>
       <c r="B11" s="8" t="s">
         <v>50</v>
       </c>
@@ -1129,60 +1436,54 @@
       <c r="E11" s="9">
         <v>1</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="16">
-        <v>1</v>
-      </c>
-      <c r="F12" s="17" t="s">
+      <c r="C12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="11">
-        <v>1</v>
-      </c>
-      <c r="F14" s="12" t="s">
+      <c r="C14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>38</v>
-      </c>
+      <c r="A15" s="23"/>
       <c r="B15" s="8" t="s">
         <v>45</v>
       </c>
@@ -1195,17 +1496,13 @@
       <c r="E15" s="9">
         <v>1</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>38</v>
-      </c>
+      <c r="A16" s="23"/>
       <c r="B16" s="8" t="s">
         <v>51</v>
       </c>
@@ -1218,17 +1515,13 @@
       <c r="E16" s="9">
         <v>1</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>38</v>
-      </c>
+      <c r="A17" s="23"/>
       <c r="B17" s="8" t="s">
         <v>52</v>
       </c>
@@ -1241,17 +1534,13 @@
       <c r="E17" s="9">
         <v>1</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>38</v>
-      </c>
+      <c r="A18" s="23"/>
       <c r="B18" s="8" t="s">
         <v>50</v>
       </c>
@@ -1264,17 +1553,13 @@
       <c r="E18" s="9">
         <v>1</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>38</v>
-      </c>
+      <c r="A19" s="23"/>
       <c r="B19" s="8" t="s">
         <v>53</v>
       </c>
@@ -1287,17 +1572,13 @@
       <c r="E19" s="9">
         <v>1</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>38</v>
-      </c>
+      <c r="A20" s="23"/>
       <c r="B20" s="8" t="s">
         <v>54</v>
       </c>
@@ -1310,120 +1591,484 @@
       <c r="E20" s="9">
         <v>1</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="16">
-        <v>1</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="C21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="15">
+        <v>1</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="11">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12" t="s">
+      <c r="C23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="24" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="16">
-        <v>1</v>
-      </c>
-      <c r="F24" s="17" t="s">
+      <c r="C24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="15">
+        <v>1</v>
+      </c>
+      <c r="F24" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="11">
-        <v>1</v>
-      </c>
-      <c r="F26" s="12" t="s">
+      <c r="C26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="24" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="16">
-        <v>1</v>
-      </c>
-      <c r="F27" s="17" t="s">
+      <c r="C27" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="15">
+        <v>1</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="39"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="10">
+        <v>1</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="40">
+        <v>1</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="40">
+        <v>1</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="40">
+        <v>1</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="40">
+        <v>1</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="40">
+        <v>1</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+      <c r="B35" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="40">
+        <v>1</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="21"/>
+      <c r="B36" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="15">
+        <v>1</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="39"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="10">
+        <v>1</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="33"/>
+      <c r="B39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="9">
+        <v>1</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="34"/>
+      <c r="B40" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="15">
+        <v>1</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="10">
+        <v>1</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21"/>
+      <c r="B43" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="15">
+        <v>1</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="10">
+        <v>1</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="21"/>
+      <c r="B46" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="15">
+        <v>1</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="10">
+        <v>1</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="21"/>
+      <c r="B49" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="15">
+        <v>1</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="10">
+        <v>1</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="21"/>
+      <c r="B52" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="15">
+        <v>1</v>
+      </c>
+      <c r="F52" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1434,10 +2079,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307633E0-95BB-4101-8F21-8B6A9E0EBAC5}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,11 +2090,11 @@
     <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -1465,114 +2110,228 @@
       <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E5" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C6" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D6" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E6" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="8" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D7" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E7" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D8" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E8" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="8" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D9" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E9" s="18" t="s">
         <v>29</v>
+      </c>
+      <c r="F9" s="43"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+      <c r="B14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34"/>
+      <c r="B16" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1582,10 +2341,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BC2AFE-8505-46FC-A172-307AD377E7A4}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,50 +2357,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="A4" s="12"/>
       <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
@@ -1653,96 +2411,90 @@
       <c r="E4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="C5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="22" t="s">
+      <c r="C7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="17" t="s">
+      <c r="C8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="22" t="s">
+      <c r="C10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>38</v>
-      </c>
+      <c r="A11" s="23"/>
       <c r="B11" s="8" t="s">
         <v>45</v>
       </c>
@@ -1755,14 +2507,12 @@
       <c r="E11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>38</v>
-      </c>
+      <c r="A12" s="23"/>
       <c r="B12" s="8" t="s">
         <v>51</v>
       </c>
@@ -1775,14 +2525,12 @@
       <c r="E12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>38</v>
-      </c>
+      <c r="A13" s="23"/>
       <c r="B13" s="8" t="s">
         <v>52</v>
       </c>
@@ -1795,14 +2543,12 @@
       <c r="E13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>38</v>
-      </c>
+      <c r="A14" s="23"/>
       <c r="B14" s="8" t="s">
         <v>50</v>
       </c>
@@ -1815,14 +2561,12 @@
       <c r="E14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>38</v>
-      </c>
+      <c r="A15" s="23"/>
       <c r="B15" s="8" t="s">
         <v>53</v>
       </c>
@@ -1835,14 +2579,12 @@
       <c r="E15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>38</v>
-      </c>
+      <c r="A16" s="23"/>
       <c r="B16" s="8" t="s">
         <v>54</v>
       </c>
@@ -1855,111 +2597,482 @@
       <c r="E16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="17" t="s">
+      <c r="C17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="22" t="s">
+      <c r="C19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="24" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="17" t="s">
+      <c r="C20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="22" t="s">
+      <c r="C22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="24" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="17" t="s">
+      <c r="C23" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="33"/>
+      <c r="B35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="34"/>
+      <c r="B36" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21"/>
+      <c r="B39" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="21"/>
+      <c r="B42" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="21"/>
+      <c r="B45" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="21"/>
+      <c r="B48" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="19" t="s">
         <v>27</v>
       </c>
     </row>

--- a/ws-subprg/ws_subprgList_protocolCore.xlsx
+++ b/ws-subprg/ws_subprgList_protocolCore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\ws-subprg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D89DE8-2341-45CF-A889-1E499DE136DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D17306-CBAE-4530-9060-02B16B5E18D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sottoprogramma" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="90">
   <si>
     <t>File</t>
   </si>
@@ -265,9 +265,6 @@
   </si>
   <si>
     <t>PATCH</t>
-  </si>
-  <si>
-    <t>manca</t>
   </si>
   <si>
     <t>Patch</t>
@@ -882,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,10 +1095,10 @@
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21"/>
       <c r="B10" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>81</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>82</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>60</v>
@@ -1116,11 +1113,9 @@
         <v>12</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="41" t="s">
-        <v>79</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1148,9 +1143,7 @@
       <c r="H12" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>79</v>
-      </c>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
@@ -1175,9 +1168,7 @@
       <c r="H13" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>79</v>
-      </c>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
@@ -1202,9 +1193,7 @@
       <c r="H14" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>79</v>
-      </c>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
@@ -1229,9 +1218,7 @@
       <c r="H15" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I15" s="9" t="s">
-        <v>79</v>
-      </c>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
@@ -1256,9 +1243,7 @@
       <c r="H16" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>79</v>
-      </c>
+      <c r="I16" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1269,9 +1254,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612F6477-338E-40CE-860A-6866966E781E}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29:F36"/>
+      <selection pane="bottomLeft" activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,7 +1693,7 @@
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>49</v>
@@ -1729,7 +1714,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="40" t="s">
         <v>20</v>
@@ -1747,7 +1732,7 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>20</v>
@@ -1765,7 +1750,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="40" t="s">
         <v>20</v>
@@ -1783,7 +1768,7 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>20</v>
@@ -1801,7 +1786,7 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="40" t="s">
         <v>20</v>
@@ -1819,7 +1804,7 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>20</v>
@@ -2082,7 +2067,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2111,7 +2096,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2226,20 +2211,18 @@
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21"/>
       <c r="B10" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="42" t="s">
-        <v>79</v>
-      </c>
+      <c r="F10" s="42"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2258,9 +2241,6 @@
       <c r="E12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F12" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
@@ -2276,9 +2256,6 @@
       <c r="E13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F13" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
@@ -2294,9 +2271,6 @@
       <c r="E14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F14" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="33"/>
@@ -2312,9 +2286,6 @@
       <c r="E15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F15" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="34"/>
@@ -2329,9 +2300,6 @@
       </c>
       <c r="E16" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2709,7 +2677,7 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>49</v>
@@ -2730,7 +2698,7 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" s="40" t="s">
         <v>20</v>
@@ -2748,7 +2716,7 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27" s="40" t="s">
         <v>20</v>
@@ -2766,7 +2734,7 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28" s="40" t="s">
         <v>20</v>
@@ -2784,7 +2752,7 @@
     <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="40" t="s">
         <v>20</v>
@@ -2802,7 +2770,7 @@
     <row r="30" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="40" t="s">
         <v>20</v>
@@ -2820,7 +2788,7 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>20</v>

--- a/ws-subprg/ws_subprgList_protocolCore.xlsx
+++ b/ws-subprg/ws_subprgList_protocolCore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\ws-subprg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D17306-CBAE-4530-9060-02B16B5E18D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B294945D-AF2A-4210-84E2-9A1C9E3E7989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sottoprogramma" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="96">
   <si>
     <t>File</t>
   </si>
@@ -298,6 +298,24 @@
   </si>
   <si>
     <t>AX3M - Ins/Upd user</t>
+  </si>
+  <si>
+    <t>YAX3MENULIB</t>
+  </si>
+  <si>
+    <t>YGETMENU</t>
+  </si>
+  <si>
+    <t>Servizio che restituisce il menu di argox3 mobile parametrizzato sull'utente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YGETMENU </t>
+  </si>
+  <si>
+    <t>Menu AX3M</t>
+  </si>
+  <si>
+    <t>Codice parametro/Nome interno</t>
   </si>
 </sst>
 </file>
@@ -341,7 +359,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -470,11 +488,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -554,9 +596,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -569,7 +608,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -584,19 +622,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -877,17 +918,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="55.5703125" customWidth="1"/>
+    <col min="3" max="3" width="69.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
@@ -919,7 +960,7 @@
       <c r="H1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="36" t="s">
         <v>78</v>
       </c>
     </row>
@@ -934,28 +975,28 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="29" t="s">
         <v>8</v>
       </c>
     </row>
@@ -970,7 +1011,7 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -997,23 +1038,23 @@
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="39" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="13" t="s">
@@ -1021,23 +1062,23 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="39" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="13" t="s">
@@ -1045,23 +1086,23 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="39" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="13" t="s">
@@ -1069,23 +1110,23 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="39" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="13" t="s">
@@ -1093,7 +1134,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="22" t="s">
         <v>80</v>
       </c>
@@ -1115,11 +1156,11 @@
       <c r="H10" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="41"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -1146,7 +1187,7 @@
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="8" t="s">
         <v>64</v>
       </c>
@@ -1171,7 +1212,7 @@
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="9" t="s">
         <v>66</v>
       </c>
@@ -1196,7 +1237,7 @@
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="9" t="s">
         <v>68</v>
       </c>
@@ -1221,7 +1262,7 @@
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="15" t="s">
         <v>70</v>
       </c>
@@ -1244,6 +1285,33 @@
         <v>70</v>
       </c>
       <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1252,11 +1320,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612F6477-338E-40CE-860A-6866966E781E}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R30" sqref="R30"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,7 +1358,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="33" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -1347,7 +1415,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="20" t="s">
@@ -1388,7 +1456,7 @@
       <c r="A9" s="8"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="34" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -1447,7 +1515,7 @@
       <c r="A13" s="8"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="34" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -1605,7 +1673,7 @@
       <c r="B22" s="8"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="34" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="20" t="s">
@@ -1646,7 +1714,7 @@
       <c r="A25" s="8"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="34" t="s">
         <v>57</v>
       </c>
       <c r="B26" s="20" t="s">
@@ -1684,15 +1752,15 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="39"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="34" t="s">
         <v>80</v>
       </c>
       <c r="B29" s="20" t="s">
@@ -1713,16 +1781,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="40">
+      <c r="C30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="9">
         <v>1</v>
       </c>
       <c r="F30" s="13" t="s">
@@ -1731,16 +1799,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="40">
+      <c r="C31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="9">
         <v>1</v>
       </c>
       <c r="F31" s="13" t="s">
@@ -1749,16 +1817,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="40">
+      <c r="C32" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="9">
         <v>1</v>
       </c>
       <c r="F32" s="13" t="s">
@@ -1767,16 +1835,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="39" t="s">
+      <c r="C33" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="40">
+      <c r="E33" s="9">
         <v>1</v>
       </c>
       <c r="F33" s="13" t="s">
@@ -1785,16 +1853,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="40">
+      <c r="C34" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="9">
         <v>1</v>
       </c>
       <c r="F34" s="13" t="s">
@@ -1803,16 +1871,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="40">
+      <c r="C35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="9">
         <v>1</v>
       </c>
       <c r="F35" s="13" t="s">
@@ -1838,15 +1906,15 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="39"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="33" t="s">
         <v>62</v>
       </c>
       <c r="B38" s="20" t="s">
@@ -1866,7 +1934,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="8" t="s">
         <v>73</v>
       </c>
@@ -1884,7 +1952,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="34"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="22" t="s">
         <v>46</v>
       </c>
@@ -1903,7 +1971,7 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="34" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="20" t="s">
@@ -1942,7 +2010,7 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="34" t="s">
         <v>66</v>
       </c>
       <c r="B45" s="20" t="s">
@@ -1981,7 +2049,7 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="34" t="s">
         <v>68</v>
       </c>
       <c r="B48" s="20" t="s">
@@ -2020,7 +2088,7 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="36" t="s">
+      <c r="A51" s="34" t="s">
         <v>70</v>
       </c>
       <c r="B51" s="20" t="s">
@@ -2054,6 +2122,45 @@
         <v>1</v>
       </c>
       <c r="F52" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="10">
+        <v>1</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="32"/>
+      <c r="B55" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="15">
+        <v>1</v>
+      </c>
+      <c r="F55" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2064,10 +2171,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307633E0-95BB-4101-8F21-8B6A9E0EBAC5}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2095,7 +2202,7 @@
       <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="36" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2107,19 +2214,19 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="35" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2131,7 +2238,7 @@
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -2149,13 +2256,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="8" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="18" t="s">
@@ -2164,13 +2271,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="18" t="s">
@@ -2179,13 +2286,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="8" t="s">
         <v>58</v>
       </c>
       <c r="E8" s="18" t="s">
@@ -2194,19 +2301,18 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="43"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21"/>
@@ -2222,11 +2328,11 @@
       <c r="E10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="33" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -2243,7 +2349,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="8" t="s">
         <v>64</v>
       </c>
@@ -2258,7 +2364,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="9" t="s">
         <v>66</v>
       </c>
@@ -2273,7 +2379,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="9" t="s">
         <v>68</v>
       </c>
@@ -2288,7 +2394,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="15" t="s">
         <v>70</v>
       </c>
@@ -2299,6 +2405,24 @@
         <v>71</v>
       </c>
       <c r="E16" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="35" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2309,11 +2433,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BC2AFE-8505-46FC-A172-307AD377E7A4}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2329,7 +2453,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>2</v>
@@ -2346,7 +2470,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="33" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -2403,7 +2527,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="20" t="s">
@@ -2442,7 +2566,7 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="34" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -2589,7 +2713,7 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="34" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -2630,7 +2754,7 @@
       <c r="A21" s="8"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="34" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -2668,15 +2792,15 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="34" t="s">
         <v>80</v>
       </c>
       <c r="B25" s="20" t="s">
@@ -2697,16 +2821,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="40" t="s">
+      <c r="C26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F26" s="13" t="s">
@@ -2715,16 +2839,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="40" t="s">
+      <c r="C27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F27" s="13" t="s">
@@ -2733,16 +2857,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="40" t="s">
+      <c r="C28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F28" s="13" t="s">
@@ -2751,16 +2875,16 @@
     </row>
     <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="39" t="s">
+      <c r="C29" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F29" s="13" t="s">
@@ -2769,16 +2893,16 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="40" t="s">
+      <c r="C30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F30" s="13" t="s">
@@ -2787,16 +2911,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="40" t="s">
+      <c r="C31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F31" s="13" t="s">
@@ -2822,15 +2946,15 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="33" t="s">
         <v>62</v>
       </c>
       <c r="B34" s="20" t="s">
@@ -2851,7 +2975,7 @@
       <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="8" t="s">
         <v>73</v>
       </c>
@@ -2869,7 +2993,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="34"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="22" t="s">
         <v>46</v>
       </c>
@@ -2890,7 +3014,7 @@
       <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="34" t="s">
         <v>64</v>
       </c>
       <c r="B38" s="20" t="s">
@@ -2929,7 +3053,7 @@
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="34" t="s">
         <v>66</v>
       </c>
       <c r="B41" s="20" t="s">
@@ -2968,7 +3092,7 @@
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="34" t="s">
         <v>68</v>
       </c>
       <c r="B44" s="20" t="s">
@@ -3007,7 +3131,7 @@
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="34" t="s">
         <v>70</v>
       </c>
       <c r="B47" s="20" t="s">
@@ -3041,6 +3165,45 @@
         <v>48</v>
       </c>
       <c r="F48" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="32"/>
+      <c r="B51" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" s="19" t="s">
         <v>27</v>
       </c>
     </row>

--- a/ws-subprg/ws_subprgList_protocolCore.xlsx
+++ b/ws-subprg/ws_subprgList_protocolCore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\ws-subprg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B294945D-AF2A-4210-84E2-9A1C9E3E7989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2B7C6E-BC1D-4D32-A3AA-D729C05E329F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sottoprogramma" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="115">
   <si>
     <t>File</t>
   </si>
@@ -316,6 +316,63 @@
   </si>
   <si>
     <t>Codice parametro/Nome interno</t>
+  </si>
+  <si>
+    <t>YCLEAR_RESETTOKEN</t>
+  </si>
+  <si>
+    <t>AX3M - Reset hash e expiry date</t>
+  </si>
+  <si>
+    <t>YCLR_TOK</t>
+  </si>
+  <si>
+    <t>YFIND_BYEMAIL</t>
+  </si>
+  <si>
+    <t>AX3M - Ricerca utente per email</t>
+  </si>
+  <si>
+    <t>YFND_EML</t>
+  </si>
+  <si>
+    <t>YFIND_BYRESETTOKEN</t>
+  </si>
+  <si>
+    <t>AX3M -  Ricerca utente tramite token hash</t>
+  </si>
+  <si>
+    <t>YFND_TOK</t>
+  </si>
+  <si>
+    <t>YSAVE_RESETTOKEN</t>
+  </si>
+  <si>
+    <t>AX3M - Aggiorna hash e expiry associato all'utente</t>
+  </si>
+  <si>
+    <t>YSAV_TOK</t>
+  </si>
+  <si>
+    <t>YUPDATE_PASSWORD</t>
+  </si>
+  <si>
+    <t>AX3M - Aggiornamento hash e salt utente</t>
+  </si>
+  <si>
+    <t>YUPD_PWD</t>
+  </si>
+  <si>
+    <t>YTOKENHASH</t>
+  </si>
+  <si>
+    <t>YEXPIRY</t>
+  </si>
+  <si>
+    <t>YNEWHASH</t>
+  </si>
+  <si>
+    <t>YNEWSALT</t>
   </si>
 </sst>
 </file>
@@ -345,7 +402,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,6 +412,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,9 +668,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -628,14 +688,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -918,24 +981,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C10" sqref="C10:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="69.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="64.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -960,11 +1023,11 @@
       <c r="H1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -974,8 +1037,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -1000,7 +1063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
@@ -1010,8 +1073,8 @@
       <c r="G4" s="9"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -1037,8 +1100,8 @@
       </c>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="36"/>
       <c r="B6" s="8" t="s">
         <v>35</v>
       </c>
@@ -1061,8 +1124,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="36"/>
       <c r="B7" s="8" t="s">
         <v>38</v>
       </c>
@@ -1085,8 +1148,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="36"/>
       <c r="B8" s="8" t="s">
         <v>40</v>
       </c>
@@ -1109,10 +1172,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="36"/>
       <c r="B9" s="8" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>43</v>
@@ -1133,66 +1196,88 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="15" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="36"/>
+      <c r="B10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="H10" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="36"/>
+      <c r="B11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
+      <c r="H11" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="41"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="36"/>
+      <c r="B12" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="42"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
       <c r="B13" s="8" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>60</v>
@@ -1207,17 +1292,17 @@
         <v>12</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="9" t="s">
-        <v>66</v>
+        <v>107</v>
+      </c>
+      <c r="I13" s="42"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="36"/>
+      <c r="B14" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>60</v>
@@ -1231,85 +1316,185 @@
       <c r="G14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="42"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="37"/>
+      <c r="B15" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="36"/>
+      <c r="B18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="36"/>
+      <c r="B19" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="9" t="s">
+      <c r="C19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="36"/>
+      <c r="B20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H20" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="15" t="s">
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="37"/>
+      <c r="B21" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C21" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F21" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G21" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H21" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B23" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C23" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D23" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E23" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F23" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G23" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="41" t="s">
+      <c r="H23" s="34" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1320,23 +1505,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612F6477-338E-40CE-860A-6866966E781E}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J48" sqref="J48"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -1356,9 +1541,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -1377,7 +1562,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="9" t="s">
         <v>18</v>
@@ -1395,7 +1580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
         <v>19</v>
@@ -1413,9 +1598,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="33" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="20" t="s">
@@ -1434,7 +1619,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="21"/>
       <c r="B8" s="22" t="s">
         <v>46</v>
@@ -1452,11 +1637,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="33" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -1475,7 +1660,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="23"/>
       <c r="B11" s="8" t="s">
         <v>50</v>
@@ -1493,7 +1678,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="21"/>
       <c r="B12" s="22" t="s">
         <v>46</v>
@@ -1511,11 +1696,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="33" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -1535,7 +1720,7 @@
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="8" t="s">
         <v>45</v>
@@ -1554,7 +1739,7 @@
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="23"/>
       <c r="B16" s="8" t="s">
         <v>51</v>
@@ -1573,7 +1758,7 @@
       </c>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
       <c r="B17" s="8" t="s">
         <v>52</v>
@@ -1592,7 +1777,7 @@
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
       <c r="B18" s="8" t="s">
         <v>50</v>
@@ -1611,7 +1796,7 @@
       </c>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="23"/>
       <c r="B19" s="8" t="s">
         <v>53</v>
@@ -1630,7 +1815,7 @@
       </c>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="23"/>
       <c r="B20" s="8" t="s">
         <v>54</v>
@@ -1649,7 +1834,7 @@
       </c>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="21"/>
       <c r="B21" s="22" t="s">
         <v>46</v>
@@ -1668,12 +1853,12 @@
       </c>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="33" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="20" t="s">
@@ -1692,7 +1877,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="21"/>
       <c r="B24" s="22" t="s">
         <v>46</v>
@@ -1710,11 +1895,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="34" t="s">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="33" t="s">
         <v>57</v>
       </c>
       <c r="B26" s="20" t="s">
@@ -1724,7 +1909,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" s="10">
         <v>1</v>
@@ -1733,7 +1918,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21"/>
       <c r="B27" s="22" t="s">
         <v>46</v>
@@ -1751,17 +1936,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
-        <v>80</v>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="38"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="33" t="s">
+        <v>96</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>49</v>
@@ -1776,118 +1961,102 @@
         <v>1</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="9">
-        <v>1</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="9">
-        <v>1</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="21"/>
+      <c r="B30" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="15">
+        <v>1</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="38"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="9">
-        <v>1</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="9">
-        <v>1</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="9">
-        <v>1</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="9">
-        <v>1</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="10">
+        <v>1</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="21"/>
+      <c r="B33" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="15">
+        <v>1</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="38"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="21"/>
       <c r="B36" s="22" t="s">
         <v>46</v>
@@ -1905,20 +2074,20 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="38"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="33" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>20</v>
@@ -1933,103 +2102,125 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="9">
-        <v>1</v>
-      </c>
-      <c r="F39" s="13" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="23"/>
+      <c r="B39" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="32"/>
-      <c r="B40" s="22" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="23"/>
+      <c r="B40" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="39">
+        <v>1</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="21"/>
+      <c r="B41" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" s="15">
-        <v>1</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="10">
-        <v>1</v>
-      </c>
-      <c r="F42" s="11" t="s">
+      <c r="C41" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="15">
+        <v>1</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="38"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="10">
+        <v>1</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
-      <c r="B43" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="15">
-        <v>1</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" s="10">
-        <v>1</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="23"/>
+      <c r="B44" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="39">
+        <v>1</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="23"/>
+      <c r="B45" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="39">
+        <v>1</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="21"/>
       <c r="B46" s="22" t="s">
         <v>46</v>
@@ -2038,7 +2229,7 @@
         <v>20</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E46" s="15">
         <v>1</v>
@@ -2047,13 +2238,20 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="34" t="s">
-        <v>68</v>
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="33" t="s">
+        <v>80</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>20</v>
@@ -2065,89 +2263,119 @@
         <v>1</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
-      <c r="B49" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" s="15">
-        <v>1</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" s="10">
-        <v>1</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="21"/>
-      <c r="B52" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" s="15">
-        <v>1</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" s="10">
-        <v>1</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="32"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="23"/>
+      <c r="B49" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="9">
+        <v>1</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="23"/>
+      <c r="B50" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="9">
+        <v>1</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="23"/>
+      <c r="B51" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="9">
+        <v>1</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="23"/>
+      <c r="B52" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" s="9">
+        <v>1</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="23"/>
+      <c r="B53" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="9">
+        <v>1</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="23"/>
+      <c r="B54" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="9">
+        <v>1</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="21"/>
       <c r="B55" s="22" t="s">
         <v>46</v>
       </c>
@@ -2161,6 +2389,265 @@
         <v>1</v>
       </c>
       <c r="F55" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="10">
+        <v>1</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="30"/>
+      <c r="B58" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="9">
+        <v>1</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="31"/>
+      <c r="B59" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="15">
+        <v>1</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="10">
+        <v>1</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="21"/>
+      <c r="B62" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" s="15">
+        <v>1</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="10">
+        <v>1</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="21"/>
+      <c r="B65" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="15">
+        <v>1</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="10">
+        <v>1</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="21"/>
+      <c r="B68" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="15">
+        <v>1</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="10">
+        <v>1</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="21"/>
+      <c r="B71" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="15">
+        <v>1</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="10">
+        <v>1</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="31"/>
+      <c r="B74" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="15">
+        <v>1</v>
+      </c>
+      <c r="F74" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2171,22 +2658,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307633E0-95BB-4101-8F21-8B6A9E0EBAC5}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="45.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -2202,19 +2689,19 @@
       <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -2226,19 +2713,19 @@
       <c r="D3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -2254,7 +2741,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="8" t="s">
         <v>35</v>
@@ -2269,7 +2756,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="23"/>
       <c r="B7" s="8" t="s">
         <v>38</v>
@@ -2284,7 +2771,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
       <c r="B8" s="8" t="s">
         <v>40</v>
@@ -2299,7 +2786,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="8" t="s">
         <v>57</v>
@@ -2314,115 +2801,194 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="17" t="s">
+      <c r="F10" s="40"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
+      <c r="F11" s="41"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="41"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
       <c r="B13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>64</v>
+        <v>105</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>107</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>66</v>
+      <c r="F13" s="41"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>110</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="9" t="s">
+      <c r="F14" s="41"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
+      <c r="B18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="30"/>
+      <c r="B19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="30"/>
+      <c r="B20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E20" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="15" t="s">
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
+      <c r="B21" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C21" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E21" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33" t="s">
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B23" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C23" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D23" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E23" s="34" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2435,20 +3001,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BC2AFE-8505-46FC-A172-307AD377E7A4}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>25</v>
       </c>
@@ -2468,9 +3034,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -2489,7 +3055,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="9" t="s">
         <v>18</v>
@@ -2507,7 +3073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
         <v>19</v>
@@ -2525,9 +3091,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="33" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="20" t="s">
@@ -2546,7 +3112,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="21"/>
       <c r="B8" s="22" t="s">
         <v>46</v>
@@ -2564,9 +3130,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="33" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -2585,7 +3151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="23"/>
       <c r="B11" s="8" t="s">
         <v>45</v>
@@ -2603,7 +3169,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="B12" s="8" t="s">
         <v>51</v>
@@ -2621,7 +3187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="8" t="s">
         <v>52</v>
@@ -2639,7 +3205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="8" t="s">
         <v>50</v>
@@ -2657,7 +3223,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="8" t="s">
         <v>53</v>
@@ -2675,7 +3241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="23"/>
       <c r="B16" s="8" t="s">
         <v>54</v>
@@ -2693,7 +3259,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="21"/>
       <c r="B17" s="22" t="s">
         <v>46</v>
@@ -2711,9 +3277,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="33" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -2732,7 +3298,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21"/>
       <c r="B20" s="22" t="s">
         <v>46</v>
@@ -2750,11 +3316,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="33" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -2773,7 +3339,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="21"/>
       <c r="B23" s="22" t="s">
         <v>46</v>
@@ -2791,7 +3357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
@@ -2799,8 +3365,8 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="33" t="s">
         <v>80</v>
       </c>
       <c r="B25" s="20" t="s">
@@ -2819,7 +3385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
       <c r="B26" s="8" t="s">
         <v>83</v>
@@ -2837,7 +3403,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
       <c r="B27" s="8" t="s">
         <v>84</v>
@@ -2855,7 +3421,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
       <c r="B28" s="8" t="s">
         <v>85</v>
@@ -2873,7 +3439,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
       <c r="B29" s="8" t="s">
         <v>86</v>
@@ -2891,7 +3457,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="8" t="s">
         <v>87</v>
@@ -2909,7 +3475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
       <c r="B31" s="8" t="s">
         <v>88</v>
@@ -2927,7 +3493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="21"/>
       <c r="B32" s="22" t="s">
         <v>46</v>
@@ -2945,7 +3511,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
@@ -2953,8 +3519,8 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33" t="s">
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="32" t="s">
         <v>62</v>
       </c>
       <c r="B34" s="20" t="s">
@@ -2974,8 +3540,8 @@
       </c>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="30"/>
       <c r="B35" s="8" t="s">
         <v>73</v>
       </c>
@@ -2992,8 +3558,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="32"/>
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="31"/>
       <c r="B36" s="22" t="s">
         <v>46</v>
       </c>
@@ -3010,11 +3576,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="34" t="s">
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="33" t="s">
         <v>64</v>
       </c>
       <c r="B38" s="20" t="s">
@@ -3033,7 +3599,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="21"/>
       <c r="B39" s="22" t="s">
         <v>46</v>
@@ -3051,9 +3617,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="34" t="s">
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="33" t="s">
         <v>66</v>
       </c>
       <c r="B41" s="20" t="s">
@@ -3072,7 +3638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="21"/>
       <c r="B42" s="22" t="s">
         <v>46</v>
@@ -3090,9 +3656,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="34" t="s">
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="33" t="s">
         <v>68</v>
       </c>
       <c r="B44" s="20" t="s">
@@ -3111,7 +3677,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="21"/>
       <c r="B45" s="22" t="s">
         <v>46</v>
@@ -3129,9 +3695,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="34" t="s">
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="33" t="s">
         <v>70</v>
       </c>
       <c r="B47" s="20" t="s">
@@ -3150,7 +3716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="21"/>
       <c r="B48" s="22" t="s">
         <v>46</v>
@@ -3168,9 +3734,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="33" t="s">
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="32" t="s">
         <v>91</v>
       </c>
       <c r="B50" s="20" t="s">
@@ -3189,8 +3755,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="32"/>
+    <row r="51" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="31"/>
       <c r="B51" s="22" t="s">
         <v>46</v>
       </c>

--- a/ws-subprg/ws_subprgList_protocolCore.xlsx
+++ b/ws-subprg/ws_subprgList_protocolCore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\ws-subprg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2B7C6E-BC1D-4D32-A3AA-D729C05E329F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C89076-92EA-4AFF-87C6-18754D7947E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -688,19 +688,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1219,7 +1214,7 @@
       <c r="H10" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="42"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="36"/>
@@ -1244,7 +1239,7 @@
       <c r="H11" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="I11" s="41"/>
+      <c r="I11" s="38"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="36"/>
@@ -1269,7 +1264,7 @@
       <c r="H12" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="I12" s="42"/>
+      <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="36"/>
@@ -1294,7 +1289,7 @@
       <c r="H13" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="I13" s="42"/>
+      <c r="I13" s="39"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="36"/>
@@ -1319,7 +1314,7 @@
       <c r="H14" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="I14" s="42"/>
+      <c r="I14" s="39"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="37"/>
@@ -1937,12 +1932,12 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="38"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="33" t="s">
@@ -1983,12 +1978,12 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="38"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="33" t="s">
@@ -2029,12 +2024,12 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="38"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="33" t="s">
@@ -2075,12 +2070,12 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="38"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="33" t="s">
@@ -2104,16 +2099,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="39">
+      <c r="C39" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="9">
         <v>1</v>
       </c>
       <c r="F39" s="11" t="s">
@@ -2122,16 +2117,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="39">
+      <c r="C40" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="9">
         <v>1</v>
       </c>
       <c r="F40" s="13" t="s">
@@ -2157,12 +2152,12 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="38"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="33" t="s">
@@ -2186,16 +2181,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="39">
+      <c r="C44" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="9">
         <v>1</v>
       </c>
       <c r="F44" s="11" t="s">
@@ -2204,16 +2199,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" s="39">
+      <c r="C45" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="9">
         <v>1</v>
       </c>
       <c r="F45" s="13" t="s">
@@ -2661,7 +2656,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F10" sqref="F10:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2806,7 +2801,7 @@
       <c r="B10" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="8" t="s">
         <v>98</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -2822,7 +2817,7 @@
       <c r="B11" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="8" t="s">
         <v>101</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -2838,7 +2833,7 @@
       <c r="B12" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="8" t="s">
         <v>104</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -2854,7 +2849,7 @@
       <c r="B13" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="8" t="s">
         <v>107</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -2870,7 +2865,7 @@
       <c r="B14" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D14" s="9" t="s">
